--- a/finances.xlsx
+++ b/finances.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mcontrac/advait/ipad-keyboard/magic-keys/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{716DC4E6-A139-234B-B817-4EBE1F4B7744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0471563D-D7B0-AA41-879E-5F970A8A29AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6460" yWindow="3800" windowWidth="28040" windowHeight="17440" xr2:uid="{EC6EE335-7B92-484D-AF80-C36F566D9BA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Item</t>
   </si>
@@ -167,6 +167,18 @@
   <si>
     <t>Total</t>
   </si>
+  <si>
+    <t>128x32 OLED Screen</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>White variant</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/1005006351390199.html?spm=a2g0o.productlist.main.24.256fe6deEDHIr2&amp;algo_pvid=7d2e57db-ad30-407d-96d8-5d9838b66397&amp;aem_p4p_detail=202506122136555457460653036720000750004&amp;algo_exp_id=7d2e57db-ad30-407d-96d8-5d9838b66397-23&amp;pdp_ext_f=%7B%22order%22%3A%22109%22%2C%22eval%22%3A%221%22%7D&amp;pdp_npi=4%40dis%21SGD%212.44%212.44%21%21%2113.26%2113.26%21%4021015c7617497894153955931ea2ab%2112000036858011577%21sea%21SG%216170289340%21ABX&amp;curPageLogUid=J5ReLQEEctWA&amp;utparam-url=scene%3Asearch%7Cquery_from%3A&amp;search_p4p_id=202506122136555457460653036720000750004_6</t>
+  </si>
 </sst>
 </file>
 
@@ -174,8 +186,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="_([$$-4809]* #,##0.00_);_([$$-4809]* \(#,##0.00\);_([$$-4809]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="_([$$-4809]* #,##0.00_);_([$$-4809]* \(#,##0.00\);_([$$-4809]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -229,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -241,13 +253,15 @@
         </ext>
       </extLst>
     </xf>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,19 +413,19 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>1.375</v>
-    <v>1.2784</v>
-    <v>-2.5000000000000001E-3</v>
-    <v>-1.9470000000000002E-3</v>
+    <v>1.2777000000000001</v>
+    <v>4.7999999999999996E-3</v>
+    <v>3.754E-3</v>
     <v>SGD</v>
     <v>USD</v>
-    <v>1.2842</v>
+    <v>1.2839</v>
     <v>Currency Pair</v>
-    <v>45820.353090277778</v>
-    <v>1.2806</v>
+    <v>45821.196875000001</v>
+    <v>1.2777000000000001</v>
     <v>US Dollar/Singapore Dollar FX Spot Rate</v>
-    <v>1.284</v>
-    <v>1.2839</v>
-    <v>1.2814000000000001</v>
+    <v>1.2785</v>
+    <v>1.2785</v>
+    <v>1.2833000000000001</v>
     <v>USDSGD</v>
     <v>USD/SGD</v>
   </rv>
@@ -914,10 +928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D1B8D8-777A-EE47-B5F0-CEF887B32B26}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="162" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -932,10 +946,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="9"/>
       <c r="C1" s="1" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
@@ -944,13 +958,13 @@
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <f>SUMIF(A4:A11,A4=TRUE,D4:D11)</f>
         <v>169.61</v>
       </c>
-      <c r="C2" s="9" t="str" cm="1">
+      <c r="C2" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="C2" ca="1">_xlfn.CONCAT("Budget: $", _xlfn.FIELDVALUE(C1, "Price")*150)</f>
-        <v>Budget: $192.21</v>
+        <v>Budget: $192.495</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -960,7 +974,9 @@
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
@@ -978,10 +994,10 @@
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>1</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>3.9</v>
       </c>
       <c r="E4" s="3"/>
@@ -996,10 +1012,10 @@
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>1</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>2.88</v>
       </c>
       <c r="E5" s="3"/>
@@ -1014,10 +1030,10 @@
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>1</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>2.5</v>
       </c>
       <c r="E6" s="3"/>
@@ -1032,10 +1048,10 @@
       <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>100</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>58.91</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -1052,10 +1068,10 @@
       <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>100</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>1.31</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -1072,10 +1088,10 @@
       <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>100</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>7.05</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -1092,10 +1108,10 @@
       <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>5</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>27.77</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -1112,10 +1128,10 @@
       <c r="B11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>100</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>124.2</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -1124,6 +1140,62 @@
       <c r="F11" s="3" t="s">
         <v>25</v>
       </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="10">
+        <v>1</v>
+      </c>
+      <c r="D12" s="11">
+        <v>2.44</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="C13" s="10"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="C14" s="10"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="C15" s="10"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="C16" s="10"/>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="10"/>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="10"/>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="10"/>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="10"/>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="10"/>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="10"/>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" s="10"/>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
